--- a/excel4.xlsx
+++ b/excel4.xlsx
@@ -37,7 +37,7 @@
     <t>5d825b61f00ed355f07f94d2</t>
   </si>
   <si>
-    <t>5d8b9234da09856b00edc272</t>
+    <t>5d8b9237da09856b00edc276</t>
   </si>
 </sst>
 </file>
@@ -415,9 +415,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
